--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22305.90136294125</v>
+        <v>25007.18196246973</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20002932.62808475</v>
+        <v>20060381.09850434</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10509092.07651444</v>
+        <v>10565397.32237267</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5349912.630279701</v>
+        <v>5307053.460279204</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +664,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>252.8252773014384</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>295.7615054555166</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -786,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>80.51100496435825</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T3" t="n">
         <v>140.4611363452985</v>
@@ -817,16 +819,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>130.4455870091522</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>139.485173022116</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -956,13 +958,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>41.94115881546255</v>
+        <v>35.62225731619072</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,7 +992,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H6" t="n">
-        <v>52.84233230531351</v>
+        <v>52.84233230531348</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1023,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>80.51100496435825</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T6" t="n">
         <v>140.4611363452985</v>
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>25.04459329792188</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>168.4336970060565</v>
@@ -1114,13 +1116,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>140.237270791549</v>
       </c>
     </row>
     <row r="8">
@@ -1142,13 +1144,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>242.6792282159306</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>64.8565667204949</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1263,7 +1265,7 @@
         <v>80.51100496435802</v>
       </c>
       <c r="T9" t="n">
-        <v>140.4611363452987</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U9" t="n">
         <v>182.9205141195597</v>
@@ -1303,13 +1305,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1348,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>199.3892443385093</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>65.7695357349571</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1367,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>128.6552774352947</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>50.79761995746437</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1452,7 +1454,7 @@
         <v>116.3308444476703</v>
       </c>
       <c r="D12" t="n">
-        <v>102.801558899868</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E12" t="n">
         <v>103.6549143897921</v>
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>42.09444105482001</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,10 +1587,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>135.8046444701391</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>356.9992532086483</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>234.0612544810349</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1661,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1673,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1777,13 +1779,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>57.03093853158203</v>
+        <v>34.79484432979879</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1841,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>252.8252773014387</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1907,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>334.0777210431247</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="18">
@@ -1938,7 +1940,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H18" t="n">
-        <v>52.8423323053137</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>42.09444105482001</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>29.51612010431243</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2093,10 +2095,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>146.4310746974856</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>95.18915420984837</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2236,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>88.66266823451852</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>255.1659571616781</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2315,19 +2317,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>100.6025822988078</v>
+        <v>173.9620262541108</v>
       </c>
       <c r="G23" t="n">
         <v>400.2956717864458</v>
@@ -2378,7 +2380,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>161.6737988100371</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>164.5404183120838</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2552,13 +2554,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>28.78337546707199</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2573,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>194.3738594502973</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="27">
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
         <v>164.546123788675</v>
@@ -2725,10 +2727,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>146.4864255958706</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,19 +2769,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>108.9577095134814</v>
       </c>
     </row>
     <row r="29">
@@ -2798,13 +2800,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>286.3498453380691</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>294.8896947407055</v>
@@ -2843,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>205.2778315435739</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2950,19 +2952,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>68.83205621562998</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>65.99276982265209</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3029,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3044,10 +3046,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3089,13 +3091,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>106.8056168372338</v>
       </c>
       <c r="Y32" t="n">
-        <v>58.84470176214913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3247,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>164.540418312084</v>
+        <v>164.5404183120838</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3263,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>117.6824966688992</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>128.6552774352946</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3323,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3360,7 +3362,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H36" t="n">
-        <v>52.8423323053137</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3424,7 +3426,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>62.68937601274479</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -3484,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>164.540418312084</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3515,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>39.00296710862592</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>137.3651649456624</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
@@ -3676,7 +3678,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>34.79484432979901</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>60.346678031316</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>134.7647303247447</v>
+        <v>370.5703066376463</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3791,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3803,10 +3805,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3828,7 +3830,7 @@
         <v>103.6549143897921</v>
       </c>
       <c r="F42" t="n">
-        <v>92.70937201392506</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G42" t="n">
         <v>93.11323406457203</v>
@@ -3907,16 +3909,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>110.2709493487555</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>15.66783084984343</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,25 +3979,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>366.5719984050743</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>119.5893676834712</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4034,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>366.5719984050743</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>6.096496590581674</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4104,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T45" t="n">
         <v>140.4611363452985</v>
@@ -4113,10 +4115,10 @@
         <v>182.9205141195597</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W45" t="n">
-        <v>109.982432967307</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X45" t="n">
         <v>161.8425727710037</v>
@@ -4141,19 +4143,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>158.3629281768213</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
@@ -4192,16 +4194,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>24.25853125369852</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4304,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>792.9698630583205</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="C2" t="n">
-        <v>792.9698630583205</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="D2" t="n">
-        <v>369.6772422433207</v>
+        <v>1590.220555060086</v>
       </c>
       <c r="E2" t="n">
-        <v>369.6772422433207</v>
+        <v>1164.243615207943</v>
       </c>
       <c r="F2" t="n">
-        <v>369.6772422433207</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="G2" t="n">
-        <v>369.6772422433207</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H2" t="n">
-        <v>71.80886371735554</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J2" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K2" t="n">
-        <v>399.5154512777223</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L2" t="n">
-        <v>399.5154512777223</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="M2" t="n">
-        <v>815.1719019525203</v>
+        <v>1769.873171385915</v>
       </c>
       <c r="N2" t="n">
-        <v>1271.957808655251</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O2" t="n">
-        <v>1271.957808655251</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P2" t="n">
-        <v>1271.957808655251</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q2" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R2" t="n">
         <v>1845.599623041337</v>
@@ -4364,16 +4366,16 @@
         <v>1845.599623041337</v>
       </c>
       <c r="V2" t="n">
-        <v>1488.110208167586</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W2" t="n">
-        <v>1091.718858467933</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X2" t="n">
-        <v>792.9698630583205</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Y2" t="n">
-        <v>792.9698630583205</v>
+        <v>1845.599623041337</v>
       </c>
     </row>
     <row r="3">
@@ -4389,46 +4391,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E3" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F3" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H3" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I3" t="n">
-        <v>44.35863542273858</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J3" t="n">
         <v>316.0561247023297</v>
       </c>
       <c r="K3" t="n">
-        <v>393.2225928484409</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="L3" t="n">
-        <v>850.0084995511718</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M3" t="n">
-        <v>850.0084995511718</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="N3" t="n">
-        <v>1306.794406253903</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="O3" t="n">
-        <v>1763.580312956634</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="P3" t="n">
-        <v>1763.580312956634</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="Q3" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R3" t="n">
         <v>1845.599623041337</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>498.2001903823663</v>
+        <v>208.8845555819107</v>
       </c>
       <c r="C4" t="n">
-        <v>498.2001903823663</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D4" t="n">
-        <v>334.883417509137</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E4" t="n">
-        <v>168.6752116619906</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F4" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G4" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H4" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J4" t="n">
         <v>94.40332068498475</v>
@@ -4492,19 +4494,19 @@
         <v>320.9309218908219</v>
       </c>
       <c r="L4" t="n">
-        <v>320.9309218908219</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M4" t="n">
-        <v>712.1167168610727</v>
+        <v>695.0806413228745</v>
       </c>
       <c r="N4" t="n">
-        <v>1089.608227737109</v>
+        <v>1072.57215219891</v>
       </c>
       <c r="O4" t="n">
-        <v>1445.036356416872</v>
+        <v>1428.000280878673</v>
       </c>
       <c r="P4" t="n">
-        <v>1735.635568338772</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q4" t="n">
         <v>1845.599623041337</v>
@@ -4513,25 +4515,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.464575560472</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T4" t="n">
-        <v>1432.125227786372</v>
+        <v>1704.705508877583</v>
       </c>
       <c r="U4" t="n">
-        <v>1432.125227786372</v>
+        <v>1424.521060377887</v>
       </c>
       <c r="V4" t="n">
-        <v>1432.125227786372</v>
+        <v>1142.809592985916</v>
       </c>
       <c r="W4" t="n">
-        <v>1157.272823958885</v>
+        <v>867.9571891584293</v>
       </c>
       <c r="X4" t="n">
-        <v>914.7089274046899</v>
+        <v>625.3932926042344</v>
       </c>
       <c r="Y4" t="n">
-        <v>688.366159094432</v>
+        <v>399.0505242939764</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="C5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J5" t="n">
         <v>399.5154512777223</v>
@@ -4577,16 +4579,16 @@
         <v>399.5154512777223</v>
       </c>
       <c r="N5" t="n">
-        <v>399.5154512777223</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="O5" t="n">
-        <v>815.1719019525203</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="P5" t="n">
-        <v>1271.957808655251</v>
+        <v>1769.873171385915</v>
       </c>
       <c r="Q5" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R5" t="n">
         <v>1845.599623041337</v>
@@ -4598,16 +4600,16 @@
         <v>1520.30675795911</v>
       </c>
       <c r="U5" t="n">
-        <v>1261.951848555523</v>
+        <v>1261.951848555522</v>
       </c>
       <c r="V5" t="n">
-        <v>904.4624336817722</v>
+        <v>904.4624336817719</v>
       </c>
       <c r="W5" t="n">
-        <v>862.0976267974665</v>
+        <v>868.4803555846096</v>
       </c>
       <c r="X5" t="n">
-        <v>862.0976267974665</v>
+        <v>456.7603567523568</v>
       </c>
       <c r="Y5" t="n">
         <v>456.7603567523568</v>
@@ -4626,46 +4628,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E6" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F6" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851712</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273858</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J6" t="n">
         <v>316.0561247023297</v>
       </c>
       <c r="K6" t="n">
-        <v>393.2225928484409</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L6" t="n">
-        <v>850.0084995511718</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M6" t="n">
-        <v>850.0084995511718</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="N6" t="n">
         <v>1306.794406253903</v>
       </c>
       <c r="O6" t="n">
-        <v>1763.580312956634</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="P6" t="n">
-        <v>1763.580312956634</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="Q6" t="n">
-        <v>1763.580312956634</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R6" t="n">
         <v>1845.599623041337</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>305.7743982001963</v>
+        <v>538.4095343022865</v>
       </c>
       <c r="C7" t="n">
-        <v>305.7743982001963</v>
+        <v>366.4369711812025</v>
       </c>
       <c r="D7" t="n">
-        <v>280.4768292123964</v>
+        <v>203.1201983079732</v>
       </c>
       <c r="E7" t="n">
-        <v>280.4768292123964</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F7" t="n">
-        <v>280.4768292123964</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G7" t="n">
-        <v>280.4768292123964</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H7" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J7" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K7" t="n">
-        <v>263.4395936666639</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L7" t="n">
-        <v>303.8948463526241</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M7" t="n">
-        <v>695.080641322875</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N7" t="n">
-        <v>1072.572152198911</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O7" t="n">
-        <v>1428.000280878674</v>
+        <v>1799.725677711293</v>
       </c>
       <c r="P7" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q7" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R7" t="n">
-        <v>1798.56100972851</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S7" t="n">
-        <v>1628.425962247645</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T7" t="n">
-        <v>1385.086614473545</v>
+        <v>1432.125227786371</v>
       </c>
       <c r="U7" t="n">
-        <v>1104.902165973849</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="V7" t="n">
-        <v>823.1906985818782</v>
+        <v>870.2293118947046</v>
       </c>
       <c r="W7" t="n">
-        <v>548.3382947543912</v>
+        <v>870.2293118947046</v>
       </c>
       <c r="X7" t="n">
-        <v>305.7743982001963</v>
+        <v>870.2293118947046</v>
       </c>
       <c r="Y7" t="n">
-        <v>305.7743982001963</v>
+        <v>728.5755030143521</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1164.243615207943</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="C8" t="n">
-        <v>1164.243615207943</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="D8" t="n">
-        <v>1164.243615207943</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="E8" t="n">
-        <v>1164.243615207943</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="F8" t="n">
-        <v>739.1194333973433</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="G8" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K8" t="n">
-        <v>36.91199246082674</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L8" t="n">
-        <v>36.91199246082674</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="M8" t="n">
-        <v>36.91199246082674</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="N8" t="n">
-        <v>493.6978991635576</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="O8" t="n">
-        <v>932.7282368344229</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="P8" t="n">
-        <v>1389.514143537154</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q8" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R8" t="n">
         <v>1845.599623041337</v>
@@ -4835,19 +4837,19 @@
         <v>1845.599623041337</v>
       </c>
       <c r="U8" t="n">
-        <v>1587.244713637749</v>
+        <v>1600.469089489892</v>
       </c>
       <c r="V8" t="n">
-        <v>1229.755298763999</v>
+        <v>1242.979674616141</v>
       </c>
       <c r="W8" t="n">
-        <v>1164.243615207943</v>
+        <v>846.5883249164879</v>
       </c>
       <c r="X8" t="n">
-        <v>1164.243615207943</v>
+        <v>846.5883249164879</v>
       </c>
       <c r="Y8" t="n">
-        <v>1164.243615207943</v>
+        <v>441.2510548713781</v>
       </c>
     </row>
     <row r="9">
@@ -4863,46 +4865,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E9" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F9" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J9" t="n">
-        <v>308.6094817404178</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="K9" t="n">
-        <v>308.6094817404178</v>
+        <v>501.1445421254694</v>
       </c>
       <c r="L9" t="n">
-        <v>765.3953884431487</v>
+        <v>957.9304488282003</v>
       </c>
       <c r="M9" t="n">
-        <v>850.0084995511718</v>
+        <v>957.9304488282003</v>
       </c>
       <c r="N9" t="n">
-        <v>850.0084995511718</v>
+        <v>957.9304488282003</v>
       </c>
       <c r="O9" t="n">
-        <v>1306.794406253903</v>
+        <v>957.9304488282003</v>
       </c>
       <c r="P9" t="n">
-        <v>1763.580312956634</v>
+        <v>1414.716355530931</v>
       </c>
       <c r="Q9" t="n">
-        <v>1763.580312956634</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R9" t="n">
         <v>1845.599623041337</v>
@@ -4936,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>710.2713085277261</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="C10" t="n">
-        <v>538.2987454066421</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D10" t="n">
-        <v>374.9819725334128</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E10" t="n">
-        <v>208.7737666862663</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F10" t="n">
-        <v>36.91199246082674</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G10" t="n">
-        <v>36.91199246082674</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J10" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K10" t="n">
-        <v>320.9309218908219</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L10" t="n">
-        <v>675.6202431852428</v>
+        <v>618.1289149610848</v>
       </c>
       <c r="M10" t="n">
-        <v>1066.806038155494</v>
+        <v>1009.314709931336</v>
       </c>
       <c r="N10" t="n">
-        <v>1444.297549031529</v>
+        <v>1072.57215219891</v>
       </c>
       <c r="O10" t="n">
-        <v>1799.725677711293</v>
+        <v>1428.000280878673</v>
       </c>
       <c r="P10" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q10" t="n">
         <v>1845.599623041337</v>
@@ -4996,16 +4998,16 @@
         <v>1845.599623041337</v>
       </c>
       <c r="V10" t="n">
-        <v>1644.196345931731</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W10" t="n">
-        <v>1369.343942104244</v>
+        <v>1779.165748561582</v>
       </c>
       <c r="X10" t="n">
-        <v>1126.78004555005</v>
+        <v>1536.601852007387</v>
       </c>
       <c r="Y10" t="n">
-        <v>900.4372772397917</v>
+        <v>1310.259083697129</v>
       </c>
     </row>
     <row r="11">
@@ -5015,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1845.599623041337</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="C11" t="n">
-        <v>1715.64479734912</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D11" t="n">
-        <v>1292.35217653412</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E11" t="n">
-        <v>866.3752366819779</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F11" t="n">
-        <v>441.2510548713781</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G11" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H11" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I11" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J11" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K11" t="n">
-        <v>399.5154512777223</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="L11" t="n">
-        <v>856.3013579804531</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="M11" t="n">
-        <v>932.7282368344229</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="N11" t="n">
-        <v>932.7282368344229</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O11" t="n">
-        <v>1389.514143537154</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P11" t="n">
-        <v>1389.514143537154</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q11" t="n">
         <v>1845.599623041337</v>
@@ -5066,25 +5068,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S11" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T11" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U11" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555522</v>
       </c>
       <c r="V11" t="n">
-        <v>1845.599623041337</v>
+        <v>904.4624336817719</v>
       </c>
       <c r="W11" t="n">
-        <v>1845.599623041337</v>
+        <v>508.0710839821188</v>
       </c>
       <c r="X11" t="n">
-        <v>1845.599623041337</v>
+        <v>456.7603567523568</v>
       </c>
       <c r="Y11" t="n">
-        <v>1845.599623041337</v>
+        <v>456.7603567523568</v>
       </c>
     </row>
     <row r="12">
@@ -5094,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C12" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D12" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E12" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F12" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G12" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851712</v>
       </c>
       <c r="H12" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I12" t="n">
-        <v>44.35863542273858</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J12" t="n">
-        <v>44.35863542273858</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K12" t="n">
-        <v>44.35863542273858</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="L12" t="n">
-        <v>475.2419029331441</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="M12" t="n">
-        <v>475.2419029331441</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="N12" t="n">
-        <v>475.2419029331441</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O12" t="n">
-        <v>932.027809635875</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P12" t="n">
         <v>1388.813716338606</v>
@@ -5148,7 +5150,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T12" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U12" t="n">
         <v>1437.627243819906</v>
@@ -5157,13 +5159,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W12" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X12" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y12" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="13">
@@ -5173,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>308.6531238416347</v>
+        <v>79.43162988993785</v>
       </c>
       <c r="C13" t="n">
-        <v>136.6805607205508</v>
+        <v>79.43162988993785</v>
       </c>
       <c r="D13" t="n">
-        <v>136.6805607205508</v>
+        <v>79.43162988993785</v>
       </c>
       <c r="E13" t="n">
-        <v>136.6805607205508</v>
+        <v>79.43162988993785</v>
       </c>
       <c r="F13" t="n">
-        <v>136.6805607205508</v>
+        <v>79.43162988993785</v>
       </c>
       <c r="G13" t="n">
-        <v>136.6805607205508</v>
+        <v>79.43162988993785</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6805607205508</v>
+        <v>79.43162988993785</v>
       </c>
       <c r="I13" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J13" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K13" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="L13" t="n">
-        <v>303.8948463526241</v>
+        <v>303.8948463526237</v>
       </c>
       <c r="M13" t="n">
-        <v>695.080641322875</v>
+        <v>695.0806413228745</v>
       </c>
       <c r="N13" t="n">
-        <v>1072.572152198911</v>
+        <v>1072.57215219891</v>
       </c>
       <c r="O13" t="n">
-        <v>1428.000280878674</v>
+        <v>1428.000280878673</v>
       </c>
       <c r="P13" t="n">
         <v>1718.599492800575</v>
@@ -5233,16 +5235,16 @@
         <v>1104.902165973849</v>
       </c>
       <c r="V13" t="n">
-        <v>967.7257574181533</v>
+        <v>823.1906985818778</v>
       </c>
       <c r="W13" t="n">
-        <v>967.7257574181533</v>
+        <v>548.3382947543907</v>
       </c>
       <c r="X13" t="n">
-        <v>725.1618608639584</v>
+        <v>305.7743982001958</v>
       </c>
       <c r="Y13" t="n">
-        <v>498.8190925537004</v>
+        <v>79.43162988993785</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1845.599623041337</v>
+        <v>463.8127224475267</v>
       </c>
       <c r="C14" t="n">
-        <v>1845.599623041337</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D14" t="n">
-        <v>1422.307002226337</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E14" t="n">
-        <v>996.3300623741947</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F14" t="n">
-        <v>571.2058805635949</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G14" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J14" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K14" t="n">
-        <v>36.91199246082674</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L14" t="n">
-        <v>358.3859952497895</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M14" t="n">
-        <v>815.1719019525203</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="N14" t="n">
-        <v>1271.957808655251</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="O14" t="n">
-        <v>1271.957808655251</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="P14" t="n">
-        <v>1271.957808655251</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q14" t="n">
         <v>1728.043288159434</v>
@@ -5309,19 +5311,19 @@
         <v>1845.599623041337</v>
       </c>
       <c r="U14" t="n">
-        <v>1845.599623041337</v>
+        <v>1587.244713637749</v>
       </c>
       <c r="V14" t="n">
-        <v>1845.599623041337</v>
+        <v>1229.755298763998</v>
       </c>
       <c r="W14" t="n">
-        <v>1845.599623041337</v>
+        <v>1229.755298763998</v>
       </c>
       <c r="X14" t="n">
-        <v>1845.599623041337</v>
+        <v>1229.755298763998</v>
       </c>
       <c r="Y14" t="n">
-        <v>1845.599623041337</v>
+        <v>824.4180287188886</v>
       </c>
     </row>
     <row r="15">
@@ -5331,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C15" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D15" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E15" t="n">
-        <v>277.9876877980091</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F15" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G15" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H15" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I15" t="n">
-        <v>44.35863542273854</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J15" t="n">
-        <v>316.0561247023296</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K15" t="n">
-        <v>316.0561247023296</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="L15" t="n">
-        <v>316.0561247023296</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="M15" t="n">
-        <v>393.2225928484409</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="N15" t="n">
-        <v>850.0084995511718</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="O15" t="n">
-        <v>1306.794406253903</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="P15" t="n">
-        <v>1306.794406253903</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q15" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R15" t="n">
         <v>1845.599623041337</v>
@@ -5385,7 +5387,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T15" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U15" t="n">
         <v>1437.627243819906</v>
@@ -5394,13 +5396,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W15" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X15" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y15" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="16">
@@ -5410,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>911.6745856373313</v>
+        <v>911.6745856373311</v>
       </c>
       <c r="C16" t="n">
-        <v>739.7020225162473</v>
+        <v>739.7020225162471</v>
       </c>
       <c r="D16" t="n">
-        <v>576.385249643018</v>
+        <v>576.3852496430178</v>
       </c>
       <c r="E16" t="n">
-        <v>410.1770437958716</v>
+        <v>410.1770437958713</v>
       </c>
       <c r="F16" t="n">
-        <v>238.315269570432</v>
+        <v>238.3152695704318</v>
       </c>
       <c r="G16" t="n">
-        <v>238.315269570432</v>
+        <v>72.05829986466389</v>
       </c>
       <c r="H16" t="n">
-        <v>94.51900107858637</v>
+        <v>72.05829986466389</v>
       </c>
       <c r="I16" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J16" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K16" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L16" t="n">
-        <v>303.8948463526241</v>
+        <v>391.6013137552475</v>
       </c>
       <c r="M16" t="n">
-        <v>695.080641322875</v>
+        <v>782.7871087254983</v>
       </c>
       <c r="N16" t="n">
-        <v>1072.572152198911</v>
+        <v>1160.278619601534</v>
       </c>
       <c r="O16" t="n">
-        <v>1428.000280878674</v>
+        <v>1515.706748281297</v>
       </c>
       <c r="P16" t="n">
-        <v>1718.599492800575</v>
+        <v>1806.305960203198</v>
       </c>
       <c r="Q16" t="n">
         <v>1845.599623041337</v>
@@ -5489,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1845.599623041337</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="C17" t="n">
-        <v>1845.599623041337</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.220555060086</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="E17" t="n">
-        <v>1164.243615207943</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="F17" t="n">
-        <v>739.1194333973433</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G17" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H17" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I17" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J17" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K17" t="n">
-        <v>357.6855680512415</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L17" t="n">
-        <v>814.4714747539724</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="M17" t="n">
-        <v>1271.257381456703</v>
+        <v>358.3859952497894</v>
       </c>
       <c r="N17" t="n">
-        <v>1728.043288159434</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="O17" t="n">
-        <v>1728.043288159434</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="P17" t="n">
-        <v>1728.043288159434</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q17" t="n">
         <v>1728.043288159434</v>
@@ -5543,22 +5545,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T17" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U17" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="V17" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="W17" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="X17" t="n">
-        <v>1845.599623041337</v>
+        <v>1287.221808608066</v>
       </c>
       <c r="Y17" t="n">
-        <v>1845.599623041337</v>
+        <v>881.8845385629565</v>
       </c>
     </row>
     <row r="18">
@@ -5568,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C18" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D18" t="n">
-        <v>382.689621525072</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E18" t="n">
-        <v>277.9876877980092</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F18" t="n">
-        <v>184.3418574809133</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G18" t="n">
-        <v>90.28808569851735</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H18" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I18" t="n">
-        <v>44.35863542273858</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J18" t="n">
-        <v>44.35863542273858</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K18" t="n">
-        <v>44.35863542273858</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L18" t="n">
-        <v>501.1445421254695</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="M18" t="n">
-        <v>957.9304488282003</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="N18" t="n">
-        <v>1414.716355530931</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="O18" t="n">
-        <v>1845.599623041337</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="P18" t="n">
         <v>1845.599623041337</v>
@@ -5622,7 +5624,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T18" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U18" t="n">
         <v>1437.627243819906</v>
@@ -5631,13 +5633,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W18" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X18" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y18" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>906.3425409651227</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="C19" t="n">
-        <v>734.3699778440387</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D19" t="n">
-        <v>571.0532049708094</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E19" t="n">
-        <v>404.8449991236629</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F19" t="n">
-        <v>232.9832248982233</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G19" t="n">
-        <v>66.72625519245545</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H19" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I19" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J19" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K19" t="n">
-        <v>320.9309218908219</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L19" t="n">
-        <v>675.6202431852428</v>
+        <v>618.1289149610848</v>
       </c>
       <c r="M19" t="n">
-        <v>695.080641322875</v>
+        <v>1009.314709931336</v>
       </c>
       <c r="N19" t="n">
-        <v>1072.572152198911</v>
+        <v>1386.806220807371</v>
       </c>
       <c r="O19" t="n">
-        <v>1428.000280878674</v>
+        <v>1742.234349487134</v>
       </c>
       <c r="P19" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q19" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R19" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S19" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T19" t="n">
-        <v>1845.599623041337</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U19" t="n">
-        <v>1565.415174541641</v>
+        <v>1104.902165973849</v>
       </c>
       <c r="V19" t="n">
-        <v>1565.415174541641</v>
+        <v>823.1906985818778</v>
       </c>
       <c r="W19" t="n">
-        <v>1565.415174541641</v>
+        <v>548.3382947543907</v>
       </c>
       <c r="X19" t="n">
-        <v>1322.851277987446</v>
+        <v>305.7743982001958</v>
       </c>
       <c r="Y19" t="n">
-        <v>1096.508509677188</v>
+        <v>79.43162988993785</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>895.5993467119897</v>
+        <v>1440.262352996227</v>
       </c>
       <c r="C20" t="n">
-        <v>895.5993467119897</v>
+        <v>1440.262352996227</v>
       </c>
       <c r="D20" t="n">
-        <v>895.5993467119897</v>
+        <v>1440.262352996227</v>
       </c>
       <c r="E20" t="n">
-        <v>469.6224068598473</v>
+        <v>1014.285413144085</v>
       </c>
       <c r="F20" t="n">
-        <v>44.49822504924753</v>
+        <v>589.1612313334848</v>
       </c>
       <c r="G20" t="n">
-        <v>44.49822504924753</v>
+        <v>184.8221689229334</v>
       </c>
       <c r="H20" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I20" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J20" t="n">
-        <v>44.49822504924753</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K20" t="n">
-        <v>44.49822504924753</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L20" t="n">
-        <v>44.49822504924753</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M20" t="n">
-        <v>595.1637600336857</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="N20" t="n">
-        <v>1145.829295018124</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="O20" t="n">
-        <v>1556.689382596036</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="P20" t="n">
-        <v>2107.354917580474</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q20" t="n">
-        <v>2107.354917580474</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R20" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S20" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T20" t="n">
-        <v>2003.98568150701</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U20" t="n">
-        <v>1745.630772103422</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V20" t="n">
-        <v>1388.141357229671</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W20" t="n">
-        <v>991.7500075300184</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X20" t="n">
-        <v>895.5993467119897</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Y20" t="n">
-        <v>895.5993467119897</v>
+        <v>1440.262352996227</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>611.6217160807028</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C21" t="n">
-        <v>494.1158125982075</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D21" t="n">
-        <v>390.2758541134926</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E21" t="n">
-        <v>285.5739203864298</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F21" t="n">
-        <v>191.928090069334</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G21" t="n">
-        <v>97.87431828693795</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H21" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I21" t="n">
-        <v>44.49822504924753</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J21" t="n">
-        <v>316.1957143288386</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="K21" t="n">
-        <v>316.1957143288386</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="L21" t="n">
-        <v>316.1957143288386</v>
+        <v>393.2225928484411</v>
       </c>
       <c r="M21" t="n">
-        <v>866.8612493132769</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="N21" t="n">
-        <v>1302.520320645319</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="O21" t="n">
-        <v>1853.185855629757</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="P21" t="n">
-        <v>1853.185855629757</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="Q21" t="n">
-        <v>1853.185855629757</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R21" t="n">
-        <v>1853.185855629757</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S21" t="n">
-        <v>1771.861608191012</v>
+        <v>1764.275375602591</v>
       </c>
       <c r="T21" t="n">
-        <v>1629.98167248869</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U21" t="n">
-        <v>1445.213476408327</v>
+        <v>1437.627243819906</v>
       </c>
       <c r="V21" t="n">
-        <v>1240.240337547593</v>
+        <v>1232.654104959172</v>
       </c>
       <c r="W21" t="n">
-        <v>1043.71896038081</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X21" t="n">
-        <v>880.2416141474731</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y21" t="n">
-        <v>740.5487255007655</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1027.91077931376</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="C22" t="n">
-        <v>855.9382161926764</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D22" t="n">
-        <v>692.6214433194471</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E22" t="n">
-        <v>526.4132374723006</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F22" t="n">
-        <v>354.551463246861</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G22" t="n">
-        <v>188.2944935410931</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H22" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I22" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J22" t="n">
-        <v>101.9895532734055</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K22" t="n">
-        <v>328.5171544792427</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L22" t="n">
-        <v>683.2064757736641</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M22" t="n">
-        <v>1074.392270743915</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N22" t="n">
-        <v>1451.883781619951</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O22" t="n">
-        <v>1807.311910299714</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P22" t="n">
-        <v>2097.911122221615</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q22" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R22" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S22" t="n">
-        <v>2224.911252462377</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T22" t="n">
-        <v>2224.911252462377</v>
+        <v>1432.125227786371</v>
       </c>
       <c r="U22" t="n">
-        <v>1944.726803962681</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="V22" t="n">
-        <v>1944.726803962681</v>
+        <v>870.2293118947046</v>
       </c>
       <c r="W22" t="n">
-        <v>1686.983412890279</v>
+        <v>595.3769080672175</v>
       </c>
       <c r="X22" t="n">
-        <v>1444.419516336084</v>
+        <v>352.8130115130226</v>
       </c>
       <c r="Y22" t="n">
-        <v>1218.076748025826</v>
+        <v>126.4702432027646</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1399.725618125737</v>
+        <v>1043.871003296574</v>
       </c>
       <c r="C23" t="n">
-        <v>1399.725618125737</v>
+        <v>616.9702733098738</v>
       </c>
       <c r="D23" t="n">
-        <v>976.4329973107372</v>
+        <v>616.9702733098738</v>
       </c>
       <c r="E23" t="n">
-        <v>550.4560574585947</v>
+        <v>616.9702733098738</v>
       </c>
       <c r="F23" t="n">
-        <v>448.8372874597989</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="G23" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H23" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I23" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J23" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K23" t="n">
-        <v>595.1637600336857</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L23" t="n">
-        <v>1145.829295018124</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M23" t="n">
-        <v>1145.829295018124</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="N23" t="n">
-        <v>1145.829295018124</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="O23" t="n">
-        <v>1696.494830002562</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="P23" t="n">
-        <v>2107.354917580474</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q23" t="n">
-        <v>2107.354917580474</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R23" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S23" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T23" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U23" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V23" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W23" t="n">
-        <v>2224.911252462377</v>
+        <v>1449.208273341683</v>
       </c>
       <c r="X23" t="n">
-        <v>2224.911252462377</v>
+        <v>1449.208273341683</v>
       </c>
       <c r="Y23" t="n">
-        <v>1819.573982417267</v>
+        <v>1043.871003296574</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>611.6217160807028</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C24" t="n">
-        <v>494.1158125982075</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D24" t="n">
-        <v>390.2758541134926</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E24" t="n">
-        <v>285.5739203864298</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F24" t="n">
-        <v>191.928090069334</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G24" t="n">
-        <v>97.87431828693795</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H24" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I24" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J24" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K24" t="n">
-        <v>595.1637600336857</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L24" t="n">
-        <v>751.8547856608809</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.520320645319</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="N24" t="n">
-        <v>1853.185855629757</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O24" t="n">
-        <v>1853.185855629757</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P24" t="n">
-        <v>1853.185855629757</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q24" t="n">
-        <v>1853.185855629757</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R24" t="n">
-        <v>1853.185855629757</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S24" t="n">
-        <v>1771.861608191012</v>
+        <v>1764.275375602591</v>
       </c>
       <c r="T24" t="n">
-        <v>1629.98167248869</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U24" t="n">
-        <v>1445.213476408327</v>
+        <v>1437.627243819906</v>
       </c>
       <c r="V24" t="n">
-        <v>1240.240337547593</v>
+        <v>1232.654104959172</v>
       </c>
       <c r="W24" t="n">
-        <v>1043.71896038081</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X24" t="n">
-        <v>880.2416141474731</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y24" t="n">
-        <v>740.5487255007655</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1127.679347573484</v>
+        <v>1020.32454672534</v>
       </c>
       <c r="C25" t="n">
-        <v>955.7067844524004</v>
+        <v>848.3519836042556</v>
       </c>
       <c r="D25" t="n">
-        <v>792.3900115791711</v>
+        <v>685.0352107310263</v>
       </c>
       <c r="E25" t="n">
-        <v>626.1818057320246</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F25" t="n">
-        <v>454.3200315065851</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G25" t="n">
-        <v>288.0630618008172</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H25" t="n">
-        <v>144.2667933089716</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I25" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J25" t="n">
-        <v>101.9895532734055</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K25" t="n">
-        <v>328.5171544792427</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L25" t="n">
-        <v>683.2064757736634</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M25" t="n">
-        <v>1074.392270743914</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N25" t="n">
-        <v>1451.88378161995</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O25" t="n">
-        <v>1807.311910299713</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P25" t="n">
-        <v>2097.911122221614</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q25" t="n">
-        <v>2224.911252462376</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R25" t="n">
-        <v>2224.911252462376</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S25" t="n">
-        <v>2224.911252462376</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T25" t="n">
-        <v>2224.911252462376</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U25" t="n">
-        <v>2224.911252462376</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V25" t="n">
-        <v>2061.60438497749</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W25" t="n">
-        <v>1786.751981150003</v>
+        <v>1679.397180301858</v>
       </c>
       <c r="X25" t="n">
-        <v>1544.188084595808</v>
+        <v>1436.833283747663</v>
       </c>
       <c r="Y25" t="n">
-        <v>1317.84531628555</v>
+        <v>1210.490515437405</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>460.2046132758265</v>
+        <v>498.7095937040554</v>
       </c>
       <c r="C26" t="n">
-        <v>460.2046132758265</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="D26" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="E26" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="F26" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="G26" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="H26" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="I26" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J26" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K26" t="n">
-        <v>493.6978991635576</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L26" t="n">
-        <v>493.6978991635576</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M26" t="n">
-        <v>950.4838058662885</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N26" t="n">
-        <v>950.4838058662885</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="O26" t="n">
-        <v>1271.957808655251</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="P26" t="n">
         <v>1271.957808655251</v>
@@ -6251,25 +6253,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S26" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T26" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U26" t="n">
-        <v>1649.26239127336</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="V26" t="n">
-        <v>1291.772976399609</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="W26" t="n">
-        <v>1291.772976399609</v>
+        <v>1344.840979214824</v>
       </c>
       <c r="X26" t="n">
-        <v>880.0529775673565</v>
+        <v>933.1209803825711</v>
       </c>
       <c r="Y26" t="n">
-        <v>880.0529775673565</v>
+        <v>527.7837103374615</v>
       </c>
     </row>
     <row r="27">
@@ -6285,43 +6287,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D27" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E27" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F27" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G27" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H27" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I27" t="n">
-        <v>44.35863542273858</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J27" t="n">
-        <v>44.35863542273858</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="K27" t="n">
-        <v>393.2225928484407</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="L27" t="n">
-        <v>393.2225928484407</v>
+        <v>501.1445421254694</v>
       </c>
       <c r="M27" t="n">
-        <v>393.2225928484407</v>
+        <v>957.9304488282003</v>
       </c>
       <c r="N27" t="n">
-        <v>393.2225928484407</v>
+        <v>1414.716355530931</v>
       </c>
       <c r="O27" t="n">
-        <v>850.0084995511716</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="P27" t="n">
-        <v>1306.794406253902</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="Q27" t="n">
         <v>1763.580312956633</v>
@@ -6358,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>522.9480589938881</v>
+        <v>1020.32454672534</v>
       </c>
       <c r="C28" t="n">
-        <v>522.9480589938881</v>
+        <v>848.3519836042556</v>
       </c>
       <c r="D28" t="n">
-        <v>522.9480589938881</v>
+        <v>685.0352107310263</v>
       </c>
       <c r="E28" t="n">
-        <v>356.7398531467417</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F28" t="n">
-        <v>184.8780789213021</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G28" t="n">
-        <v>36.91199246082674</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H28" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I28" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J28" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K28" t="n">
-        <v>263.4395936666639</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L28" t="n">
-        <v>618.1289149610848</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M28" t="n">
-        <v>1009.314709931336</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N28" t="n">
-        <v>1386.806220807371</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O28" t="n">
-        <v>1742.234349487134</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P28" t="n">
         <v>1845.599623041337</v>
@@ -6412,22 +6414,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T28" t="n">
-        <v>1602.260275267237</v>
+        <v>1602.260275267236</v>
       </c>
       <c r="U28" t="n">
-        <v>1322.075826767541</v>
+        <v>1602.260275267236</v>
       </c>
       <c r="V28" t="n">
-        <v>1040.36435937557</v>
+        <v>1320.548807875265</v>
       </c>
       <c r="W28" t="n">
-        <v>765.5119555480831</v>
+        <v>1320.548807875265</v>
       </c>
       <c r="X28" t="n">
-        <v>522.9480589938881</v>
+        <v>1320.548807875265</v>
       </c>
       <c r="Y28" t="n">
-        <v>522.9480589938881</v>
+        <v>1210.490515437405</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>739.1194333973433</v>
+        <v>624.0226390050436</v>
       </c>
       <c r="C29" t="n">
-        <v>739.1194333973433</v>
+        <v>624.0226390050436</v>
       </c>
       <c r="D29" t="n">
-        <v>739.1194333973433</v>
+        <v>624.0226390050436</v>
       </c>
       <c r="E29" t="n">
-        <v>739.1194333973433</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="F29" t="n">
-        <v>739.1194333973433</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="G29" t="n">
         <v>334.7803709867919</v>
       </c>
       <c r="H29" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I29" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J29" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K29" t="n">
-        <v>856.3013579804531</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L29" t="n">
-        <v>932.027809635875</v>
+        <v>814.4714747539723</v>
       </c>
       <c r="M29" t="n">
-        <v>1388.813716338606</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="N29" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="O29" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="P29" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q29" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R29" t="n">
         <v>1845.599623041337</v>
@@ -6491,22 +6493,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T29" t="n">
-        <v>1624.67405208597</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U29" t="n">
-        <v>1366.319142682382</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V29" t="n">
-        <v>1158.967797688873</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W29" t="n">
-        <v>1158.967797688873</v>
+        <v>1449.208273341683</v>
       </c>
       <c r="X29" t="n">
-        <v>1158.967797688873</v>
+        <v>1449.208273341683</v>
       </c>
       <c r="Y29" t="n">
-        <v>1158.967797688873</v>
+        <v>1043.871003296574</v>
       </c>
     </row>
     <row r="30">
@@ -6522,37 +6524,37 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D30" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E30" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F30" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G30" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H30" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I30" t="n">
-        <v>44.35863542273858</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J30" t="n">
-        <v>44.35863542273858</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="K30" t="n">
-        <v>393.2225928484407</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="L30" t="n">
-        <v>850.0084995511716</v>
+        <v>501.1445421254694</v>
       </c>
       <c r="M30" t="n">
-        <v>1306.794406253902</v>
+        <v>957.9304488282003</v>
       </c>
       <c r="N30" t="n">
-        <v>1306.794406253902</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="O30" t="n">
         <v>1763.580312956633</v>
@@ -6595,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>876.528278233494</v>
+        <v>106.4393219715641</v>
       </c>
       <c r="C31" t="n">
-        <v>704.55571511241</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D31" t="n">
-        <v>541.2389422391807</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E31" t="n">
-        <v>375.0307363920342</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F31" t="n">
-        <v>203.1689621665946</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G31" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H31" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I31" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J31" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K31" t="n">
         <v>76.20565529896515</v>
@@ -6646,25 +6648,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S31" t="n">
-        <v>1778.940259584112</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T31" t="n">
-        <v>1535.600911810012</v>
+        <v>1602.260275267236</v>
       </c>
       <c r="U31" t="n">
-        <v>1535.600911810012</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="V31" t="n">
-        <v>1535.600911810012</v>
+        <v>1040.36435937557</v>
       </c>
       <c r="W31" t="n">
-        <v>1535.600911810012</v>
+        <v>765.5119555480826</v>
       </c>
       <c r="X31" t="n">
-        <v>1293.037015255818</v>
+        <v>522.9480589938877</v>
       </c>
       <c r="Y31" t="n">
-        <v>1066.69424694556</v>
+        <v>296.6052906836297</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>36.91199246082674</v>
+        <v>796.5779722300206</v>
       </c>
       <c r="C32" t="n">
-        <v>36.91199246082674</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="D32" t="n">
-        <v>36.91199246082674</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="E32" t="n">
-        <v>36.91199246082674</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="F32" t="n">
-        <v>36.91199246082674</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="G32" t="n">
-        <v>36.91199246082674</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="H32" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="I32" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J32" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K32" t="n">
-        <v>399.5154512777223</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="L32" t="n">
-        <v>856.3013579804531</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="M32" t="n">
-        <v>1313.087264683184</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="N32" t="n">
-        <v>1388.813716338606</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O32" t="n">
         <v>1845.599623041337</v>
@@ -6731,19 +6733,19 @@
         <v>1520.30675795911</v>
       </c>
       <c r="U32" t="n">
-        <v>1261.951848555523</v>
+        <v>1261.951848555522</v>
       </c>
       <c r="V32" t="n">
-        <v>904.4624336817722</v>
+        <v>904.4624336817719</v>
       </c>
       <c r="W32" t="n">
-        <v>508.071083982119</v>
+        <v>904.4624336817719</v>
       </c>
       <c r="X32" t="n">
-        <v>96.35108514986626</v>
+        <v>796.5779722300206</v>
       </c>
       <c r="Y32" t="n">
-        <v>36.91199246082674</v>
+        <v>796.5779722300206</v>
       </c>
     </row>
     <row r="33">
@@ -6753,40 +6755,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C33" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D33" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E33" t="n">
-        <v>277.9876877980091</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F33" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G33" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H33" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I33" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J33" t="n">
-        <v>36.9119924608267</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="K33" t="n">
-        <v>36.9119924608267</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="L33" t="n">
-        <v>493.6978991635576</v>
+        <v>1222.18129514588</v>
       </c>
       <c r="M33" t="n">
-        <v>950.4838058662884</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="N33" t="n">
         <v>1388.813716338606</v>
@@ -6807,7 +6809,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T33" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U33" t="n">
         <v>1437.627243819906</v>
@@ -6816,13 +6818,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W33" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X33" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y33" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="34">
@@ -6850,31 +6852,31 @@
         <v>180.7082609526723</v>
       </c>
       <c r="H34" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I34" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J34" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K34" t="n">
-        <v>76.20565529896515</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L34" t="n">
-        <v>430.8949765933859</v>
+        <v>391.6013137552475</v>
       </c>
       <c r="M34" t="n">
-        <v>822.0807715636367</v>
+        <v>782.7871087254983</v>
       </c>
       <c r="N34" t="n">
-        <v>1199.572282439673</v>
+        <v>1160.278619601534</v>
       </c>
       <c r="O34" t="n">
-        <v>1555.000411119436</v>
+        <v>1515.706748281297</v>
       </c>
       <c r="P34" t="n">
-        <v>1845.599623041337</v>
+        <v>1806.305960203198</v>
       </c>
       <c r="Q34" t="n">
         <v>1845.599623041337</v>
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1845.599623041337</v>
+        <v>155.7832012172905</v>
       </c>
       <c r="C35" t="n">
-        <v>1845.599623041337</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D35" t="n">
-        <v>1422.307002226337</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E35" t="n">
-        <v>996.3300623741947</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F35" t="n">
-        <v>571.2058805635949</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G35" t="n">
-        <v>166.8668181530435</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H35" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I35" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J35" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K35" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L35" t="n">
         <v>493.6978991635576</v>
       </c>
       <c r="M35" t="n">
-        <v>815.1719019525203</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="N35" t="n">
-        <v>815.1719019525203</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="O35" t="n">
-        <v>815.1719019525203</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="P35" t="n">
-        <v>1271.957808655251</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q35" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R35" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S35" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T35" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U35" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="V35" t="n">
-        <v>1845.599623041337</v>
+        <v>1383.742914040726</v>
       </c>
       <c r="W35" t="n">
-        <v>1845.599623041337</v>
+        <v>987.3515643410733</v>
       </c>
       <c r="X35" t="n">
-        <v>1845.599623041337</v>
+        <v>575.6315655088206</v>
       </c>
       <c r="Y35" t="n">
-        <v>1845.599623041337</v>
+        <v>575.6315655088206</v>
       </c>
     </row>
     <row r="36">
@@ -6990,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C36" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D36" t="n">
-        <v>382.689621525072</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E36" t="n">
-        <v>277.9876877980092</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F36" t="n">
-        <v>184.3418574809133</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G36" t="n">
-        <v>90.28808569851735</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H36" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I36" t="n">
-        <v>44.35863542273858</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J36" t="n">
-        <v>316.0561247023297</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="K36" t="n">
-        <v>316.0561247023297</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="L36" t="n">
-        <v>393.2225928484409</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="M36" t="n">
-        <v>393.2225928484409</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="N36" t="n">
-        <v>850.0084995511718</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O36" t="n">
-        <v>1306.794406253903</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P36" t="n">
-        <v>1763.580312956634</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q36" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R36" t="n">
         <v>1845.599623041337</v>
@@ -7044,7 +7046,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T36" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U36" t="n">
         <v>1437.627243819906</v>
@@ -7053,13 +7055,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W36" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X36" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y36" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="37">
@@ -7069,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1020.32454672534</v>
+        <v>911.6745856373311</v>
       </c>
       <c r="C37" t="n">
         <v>848.3519836042556</v>
@@ -7087,31 +7089,31 @@
         <v>180.7082609526723</v>
       </c>
       <c r="H37" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I37" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J37" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K37" t="n">
-        <v>76.20565529896515</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L37" t="n">
-        <v>430.8949765933859</v>
+        <v>303.8948463526237</v>
       </c>
       <c r="M37" t="n">
-        <v>822.0807715636367</v>
+        <v>695.0806413228745</v>
       </c>
       <c r="N37" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.57215219891</v>
       </c>
       <c r="O37" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878673</v>
       </c>
       <c r="P37" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q37" t="n">
         <v>1845.599623041337</v>
@@ -7132,13 +7134,13 @@
         <v>1845.599623041337</v>
       </c>
       <c r="W37" t="n">
-        <v>1679.397180301858</v>
+        <v>1570.74721921385</v>
       </c>
       <c r="X37" t="n">
-        <v>1436.833283747663</v>
+        <v>1328.183322659655</v>
       </c>
       <c r="Y37" t="n">
-        <v>1210.490515437405</v>
+        <v>1101.840554349397</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>889.7896622996691</v>
+        <v>1261.951848555522</v>
       </c>
       <c r="C38" t="n">
-        <v>462.8889323129692</v>
+        <v>835.0511185688226</v>
       </c>
       <c r="D38" t="n">
-        <v>462.8889323129692</v>
+        <v>835.0511185688226</v>
       </c>
       <c r="E38" t="n">
-        <v>36.91199246082674</v>
+        <v>409.0741787166802</v>
       </c>
       <c r="F38" t="n">
-        <v>36.91199246082674</v>
+        <v>409.0741787166802</v>
       </c>
       <c r="G38" t="n">
-        <v>36.91199246082674</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="H38" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="I38" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J38" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K38" t="n">
-        <v>475.2419029331441</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L38" t="n">
-        <v>932.027809635875</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="M38" t="n">
-        <v>932.027809635875</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="N38" t="n">
-        <v>932.027809635875</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="O38" t="n">
-        <v>1388.813716338606</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="P38" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q38" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R38" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S38" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T38" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U38" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555522</v>
       </c>
       <c r="V38" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555522</v>
       </c>
       <c r="W38" t="n">
-        <v>1706.846931177031</v>
+        <v>1261.951848555522</v>
       </c>
       <c r="X38" t="n">
-        <v>1295.126932344779</v>
+        <v>1261.951848555522</v>
       </c>
       <c r="Y38" t="n">
-        <v>889.7896622996691</v>
+        <v>1261.951848555522</v>
       </c>
     </row>
     <row r="39">
@@ -7227,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C39" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D39" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E39" t="n">
-        <v>277.9876877980091</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F39" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G39" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H39" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I39" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J39" t="n">
-        <v>36.9119924608267</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="K39" t="n">
-        <v>36.9119924608267</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="L39" t="n">
-        <v>493.6978991635576</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="M39" t="n">
-        <v>932.027809635875</v>
+        <v>1222.18129514588</v>
       </c>
       <c r="N39" t="n">
         <v>1388.813716338606</v>
       </c>
       <c r="O39" t="n">
-        <v>1845.599623041337</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P39" t="n">
         <v>1845.599623041337</v>
@@ -7281,7 +7283,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T39" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U39" t="n">
         <v>1437.627243819906</v>
@@ -7290,13 +7292,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W39" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X39" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y39" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="40">
@@ -7306,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>911.6745856373313</v>
+        <v>704.5557151124099</v>
       </c>
       <c r="C40" t="n">
-        <v>739.7020225162473</v>
+        <v>704.5557151124099</v>
       </c>
       <c r="D40" t="n">
-        <v>576.385249643018</v>
+        <v>541.2389422391806</v>
       </c>
       <c r="E40" t="n">
-        <v>410.1770437958716</v>
+        <v>375.0307363920342</v>
       </c>
       <c r="F40" t="n">
-        <v>238.315269570432</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="G40" t="n">
-        <v>72.05829986466412</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H40" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I40" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J40" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K40" t="n">
         <v>76.20565529896515</v>
@@ -7360,22 +7362,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T40" t="n">
-        <v>1845.599623041337</v>
+        <v>1602.260275267236</v>
       </c>
       <c r="U40" t="n">
-        <v>1845.599623041337</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="V40" t="n">
-        <v>1845.599623041337</v>
+        <v>1040.36435937557</v>
       </c>
       <c r="W40" t="n">
-        <v>1570.74721921385</v>
+        <v>765.5119555480826</v>
       </c>
       <c r="X40" t="n">
-        <v>1328.183322659655</v>
+        <v>704.5557151124099</v>
       </c>
       <c r="Y40" t="n">
-        <v>1101.840554349397</v>
+        <v>704.5557151124099</v>
       </c>
     </row>
     <row r="41">
@@ -7385,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1313.082283114669</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="C41" t="n">
-        <v>886.181553127969</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D41" t="n">
-        <v>462.8889323129692</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E41" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F41" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G41" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H41" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I41" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J41" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K41" t="n">
-        <v>399.5154512777223</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L41" t="n">
-        <v>856.3013579804531</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="M41" t="n">
-        <v>856.3013579804531</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="N41" t="n">
-        <v>1271.957808655251</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="O41" t="n">
-        <v>1271.957808655251</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="P41" t="n">
-        <v>1271.957808655251</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q41" t="n">
         <v>1728.043288159434</v>
@@ -7439,22 +7441,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T41" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U41" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="V41" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="W41" t="n">
-        <v>1449.208273341684</v>
+        <v>1228.282702386317</v>
       </c>
       <c r="X41" t="n">
-        <v>1449.208273341684</v>
+        <v>816.562703554064</v>
       </c>
       <c r="Y41" t="n">
-        <v>1449.208273341684</v>
+        <v>411.2254335089543</v>
       </c>
     </row>
     <row r="42">
@@ -7464,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C42" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D42" t="n">
-        <v>382.689621525072</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E42" t="n">
-        <v>277.9876877980092</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F42" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G42" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H42" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082672</v>
       </c>
       <c r="I42" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J42" t="n">
-        <v>36.91199246082674</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K42" t="n">
-        <v>493.6978991635576</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L42" t="n">
-        <v>932.027809635875</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M42" t="n">
-        <v>932.027809635875</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="N42" t="n">
-        <v>932.027809635875</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="O42" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="P42" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q42" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R42" t="n">
         <v>1845.599623041337</v>
@@ -7518,7 +7520,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T42" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U42" t="n">
         <v>1437.627243819906</v>
@@ -7527,13 +7529,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W42" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X42" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y42" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="43">
@@ -7543,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>821.6561058497014</v>
+        <v>781.9743710538562</v>
       </c>
       <c r="C43" t="n">
-        <v>649.6835427286173</v>
+        <v>610.0018079327722</v>
       </c>
       <c r="D43" t="n">
-        <v>486.366769855388</v>
+        <v>446.6850350595429</v>
       </c>
       <c r="E43" t="n">
-        <v>320.1585640082416</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="F43" t="n">
-        <v>148.296789782802</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="G43" t="n">
-        <v>36.91199246082674</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H43" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I43" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J43" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K43" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L43" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M43" t="n">
-        <v>822.0807715636367</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N43" t="n">
-        <v>1199.572282439673</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O43" t="n">
-        <v>1555.000411119436</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="P43" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q43" t="n">
         <v>1845.599623041337</v>
@@ -7597,22 +7599,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T43" t="n">
-        <v>1845.599623041337</v>
+        <v>1602.260275267236</v>
       </c>
       <c r="U43" t="n">
-        <v>1565.415174541641</v>
+        <v>1322.075826767541</v>
       </c>
       <c r="V43" t="n">
-        <v>1565.415174541641</v>
+        <v>1040.36435937557</v>
       </c>
       <c r="W43" t="n">
-        <v>1290.562770714154</v>
+        <v>1024.538267608051</v>
       </c>
       <c r="X43" t="n">
-        <v>1047.998874159959</v>
+        <v>781.9743710538562</v>
       </c>
       <c r="Y43" t="n">
-        <v>821.6561058497014</v>
+        <v>781.9743710538562</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>732.3657555186113</v>
+        <v>1433.879624209084</v>
       </c>
       <c r="C44" t="n">
-        <v>732.3657555186113</v>
+        <v>1006.978894222384</v>
       </c>
       <c r="D44" t="n">
-        <v>732.3657555186113</v>
+        <v>583.6862734073845</v>
       </c>
       <c r="E44" t="n">
-        <v>732.3657555186113</v>
+        <v>157.7093335552421</v>
       </c>
       <c r="F44" t="n">
-        <v>732.3657555186113</v>
+        <v>157.7093335552421</v>
       </c>
       <c r="G44" t="n">
-        <v>362.0910096548999</v>
+        <v>157.7093335552421</v>
       </c>
       <c r="H44" t="n">
-        <v>64.22263112893474</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I44" t="n">
-        <v>29.32575987240594</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J44" t="n">
-        <v>391.9292186893015</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K44" t="n">
-        <v>391.9292186893015</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L44" t="n">
-        <v>622.9191018963475</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M44" t="n">
-        <v>622.9191018963475</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N44" t="n">
-        <v>985.825380317371</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="O44" t="n">
-        <v>1348.731658738395</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P44" t="n">
-        <v>1348.731658738395</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q44" t="n">
-        <v>1348.731658738395</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R44" t="n">
-        <v>1466.287993620297</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S44" t="n">
-        <v>1466.287993620297</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T44" t="n">
-        <v>1466.287993620297</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U44" t="n">
-        <v>1466.287993620297</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V44" t="n">
-        <v>1108.798578746547</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W44" t="n">
-        <v>738.5238328828352</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X44" t="n">
-        <v>732.3657555186113</v>
+        <v>1433.879624209084</v>
       </c>
       <c r="Y44" t="n">
-        <v>732.3657555186113</v>
+        <v>1433.879624209084</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>596.4492509038612</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C45" t="n">
-        <v>478.943347421366</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D45" t="n">
-        <v>375.103388936651</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E45" t="n">
-        <v>270.4014552095882</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F45" t="n">
-        <v>176.7556248924923</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G45" t="n">
-        <v>82.70185311009635</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H45" t="n">
-        <v>29.32575987240594</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I45" t="n">
-        <v>29.32575987240594</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J45" t="n">
-        <v>301.023249151997</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K45" t="n">
-        <v>301.023249151997</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L45" t="n">
-        <v>301.023249151997</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M45" t="n">
-        <v>663.9295275730206</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="N45" t="n">
-        <v>663.9295275730206</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="O45" t="n">
-        <v>1026.835805994044</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="P45" t="n">
-        <v>1384.268683535594</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q45" t="n">
-        <v>1384.268683535594</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R45" t="n">
-        <v>1466.287993620297</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S45" t="n">
-        <v>1466.287993620297</v>
+        <v>1764.275375602591</v>
       </c>
       <c r="T45" t="n">
-        <v>1324.408057917975</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U45" t="n">
-        <v>1139.639861837612</v>
+        <v>1437.627243819906</v>
       </c>
       <c r="V45" t="n">
-        <v>1139.639861837612</v>
+        <v>1232.654104959172</v>
       </c>
       <c r="W45" t="n">
-        <v>1028.546495203969</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X45" t="n">
-        <v>865.0691489706315</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y45" t="n">
-        <v>725.3762603239239</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>862.6476296532662</v>
+        <v>643.8316709403036</v>
       </c>
       <c r="C46" t="n">
-        <v>690.6750665321822</v>
+        <v>471.8591078192196</v>
       </c>
       <c r="D46" t="n">
-        <v>527.3582936589529</v>
+        <v>308.5423349459903</v>
       </c>
       <c r="E46" t="n">
-        <v>361.1500878118064</v>
+        <v>308.5423349459903</v>
       </c>
       <c r="F46" t="n">
-        <v>189.2883135863669</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="G46" t="n">
-        <v>29.32575987240594</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="H46" t="n">
-        <v>29.32575987240594</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I46" t="n">
-        <v>29.32575987240594</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J46" t="n">
-        <v>86.81708809656396</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K46" t="n">
-        <v>313.3446893024012</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L46" t="n">
-        <v>313.3446893024012</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M46" t="n">
-        <v>676.2509677234248</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N46" t="n">
-        <v>1039.157246144448</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O46" t="n">
-        <v>1048.688651457634</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P46" t="n">
-        <v>1339.287863379535</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q46" t="n">
-        <v>1466.287993620297</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R46" t="n">
-        <v>1466.287993620297</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S46" t="n">
-        <v>1296.152946139432</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T46" t="n">
-        <v>1052.813598365332</v>
+        <v>1602.260275267237</v>
       </c>
       <c r="U46" t="n">
-        <v>1052.813598365332</v>
+        <v>1602.260275267237</v>
       </c>
       <c r="V46" t="n">
-        <v>1052.813598365332</v>
+        <v>1577.756708344309</v>
       </c>
       <c r="W46" t="n">
-        <v>1052.813598365332</v>
+        <v>1302.904304516822</v>
       </c>
       <c r="X46" t="n">
-        <v>1052.813598365332</v>
+        <v>1060.340407962627</v>
       </c>
       <c r="Y46" t="n">
-        <v>1052.813598365332</v>
+        <v>833.9976396523693</v>
       </c>
     </row>
   </sheetData>
@@ -7979,16 +7981,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M2" t="n">
-        <v>457.2862635810461</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N2" t="n">
-        <v>498.6795285947802</v>
+        <v>113.770988142953</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
@@ -7997,10 +7999,10 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,28 +8060,28 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>100.3451612536477</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
         <v>483.9149924745637</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N3" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>183.5407536736399</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8140,10 +8142,10 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7126065281028</v>
+        <v>42.23240770727544</v>
       </c>
       <c r="N4" t="n">
         <v>402.0534574160406</v>
@@ -8155,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>135.694365494648</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8225,19 +8227,19 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O5" t="n">
-        <v>457.2459600376383</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P5" t="n">
-        <v>498.9752675705655</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>112.616039913105</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,7 +8297,7 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>100.3451612536477</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L6" t="n">
         <v>483.9149924745637</v>
@@ -8304,7 +8306,7 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>482.7429339738759</v>
+        <v>99.2889556338564</v>
       </c>
       <c r="O6" t="n">
         <v>484.5717954825564</v>
@@ -8371,13 +8373,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
-        <v>62.78265149768123</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
         <v>417.7126065281028</v>
@@ -8389,10 +8391,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>315.9153581548562</v>
+        <v>68.71811917318252</v>
       </c>
       <c r="Q7" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,28 +8455,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M8" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>480.8559469023526</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P8" t="n">
-        <v>498.9752675705655</v>
+        <v>361.589074527822</v>
       </c>
       <c r="Q8" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,31 +8528,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L9" t="n">
         <v>483.9149924745637</v>
       </c>
       <c r="M9" t="n">
-        <v>108.5645695103311</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651629</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>375.1348740725161</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8608,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K10" t="n">
         <v>249.7804132464869</v>
@@ -8620,16 +8622,16 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N10" t="n">
-        <v>402.0534574160406</v>
+        <v>84.64530730648401</v>
       </c>
       <c r="O10" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P10" t="n">
-        <v>68.71811917318276</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8690,25 +8692,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>112.2559661033164</v>
       </c>
       <c r="L11" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>114.6301304286942</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N11" t="n">
-        <v>37.27962283444602</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O11" t="n">
-        <v>498.7908651163583</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P11" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R11" t="n">
         <v>35.03264989479647</v>
@@ -8766,25 +8768,25 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>183.1929492179946</v>
       </c>
       <c r="L12" t="n">
-        <v>457.7507104621139</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N12" t="n">
-        <v>21.34302821354166</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O12" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
         <v>484.1469440493127</v>
@@ -8845,13 +8847,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
         <v>20.964654452712</v>
       </c>
       <c r="L13" t="n">
-        <v>291.5984102914562</v>
+        <v>233.526361580185</v>
       </c>
       <c r="M13" t="n">
         <v>417.7126065281028</v>
@@ -8924,16 +8926,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L14" t="n">
-        <v>363.0332573709691</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>498.831168659766</v>
+        <v>456.5787613602905</v>
       </c>
       <c r="N14" t="n">
         <v>498.6795285947802</v>
@@ -8945,7 +8947,7 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9006,28 +9008,28 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>183.1929492179946</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>101.0427079326424</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>482.7429339738759</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O15" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q15" t="n">
         <v>484.1469440493127</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9082,13 +9084,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K16" t="n">
         <v>20.964654452712</v>
       </c>
       <c r="L16" t="n">
-        <v>233.5263615801855</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
         <v>417.7126065281028</v>
@@ -9103,7 +9105,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>152.9025226039384</v>
+        <v>64.31013128815719</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9164,13 +9166,13 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K17" t="n">
-        <v>359.7783135124</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M17" t="n">
-        <v>498.831168659766</v>
+        <v>362.152477837778</v>
       </c>
       <c r="N17" t="n">
         <v>498.6795285947802</v>
@@ -9179,10 +9181,10 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P17" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9237,7 +9239,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
@@ -9246,19 +9248,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>484.4966862726622</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N18" t="n">
-        <v>482.7429339738759</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O18" t="n">
-        <v>458.4075134701067</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>464.5283265304018</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9319,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K19" t="n">
         <v>249.7804132464869</v>
@@ -9328,7 +9330,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>42.2324077072759</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N19" t="n">
         <v>402.0534574160406</v>
@@ -9337,10 +9339,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9153581548562</v>
+        <v>126.7901678844535</v>
       </c>
       <c r="Q19" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9398,25 +9400,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M20" t="n">
-        <v>593.6590760150259</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N20" t="n">
-        <v>593.5074359500402</v>
+        <v>456.4271212953046</v>
       </c>
       <c r="O20" t="n">
-        <v>452.4011488286621</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P20" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q20" t="n">
         <v>36.12467460459804</v>
@@ -9474,25 +9476,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>374.9029224977674</v>
       </c>
       <c r="M21" t="n">
-        <v>579.3245936279221</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N21" t="n">
-        <v>461.4026962257055</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O21" t="n">
-        <v>579.3997028378163</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
@@ -9501,7 +9503,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9556,13 +9558,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K22" t="n">
-        <v>249.7804132464869</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L22" t="n">
-        <v>380.190801607238</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
         <v>417.7126065281028</v>
@@ -9577,7 +9579,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9638,22 +9640,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
-        <v>594.539855548217</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M23" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N23" t="n">
-        <v>37.27962283444602</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O23" t="n">
-        <v>593.6187724716183</v>
+        <v>361.4046720736148</v>
       </c>
       <c r="P23" t="n">
-        <v>452.5855512828693</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
@@ -9717,16 +9719,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>180.7888499740228</v>
+        <v>465.2725720398028</v>
       </c>
       <c r="M24" t="n">
-        <v>579.3245936279221</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N24" t="n">
-        <v>577.5708413291358</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9735,7 +9737,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R24" t="n">
         <v>23.67291939414415</v>
@@ -9793,10 +9795,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K25" t="n">
-        <v>249.7804132464869</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L25" t="n">
         <v>380.1908016072373</v>
@@ -9814,7 +9816,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9872,25 +9874,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M26" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
-        <v>362.1121742943703</v>
+        <v>457.2459600376382</v>
       </c>
       <c r="P26" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q26" t="n">
         <v>496.8170781441769</v>
@@ -9954,25 +9956,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K27" t="n">
-        <v>374.7870696168708</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M27" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O27" t="n">
-        <v>484.5717954825564</v>
+        <v>375.5597255057598</v>
       </c>
       <c r="P27" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R27" t="n">
         <v>106.5207073584907</v>
@@ -10033,7 +10035,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K28" t="n">
-        <v>249.7804132464869</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L28" t="n">
         <v>380.1908016072373</v>
@@ -10048,7 +10050,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>126.7901678844537</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q28" t="n">
         <v>24.61956276478495</v>
@@ -10112,10 +10114,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
-        <v>114.8034077411299</v>
+        <v>457.4595408934816</v>
       </c>
       <c r="M29" t="n">
         <v>498.831168659766</v>
@@ -10133,7 +10135,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,16 +10193,16 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>374.7870696168708</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
         <v>483.9149924745637</v>
       </c>
       <c r="M30" t="n">
-        <v>484.4966862726622</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>373.7308639970795</v>
       </c>
       <c r="O30" t="n">
         <v>484.5717954825564</v>
@@ -10270,7 +10272,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K31" t="n">
-        <v>60.65522297608413</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L31" t="n">
         <v>380.1908016072373</v>
@@ -10349,19 +10351,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>112.2559661033164</v>
       </c>
       <c r="L32" t="n">
-        <v>499.7119481929572</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M32" t="n">
         <v>498.831168659766</v>
       </c>
       <c r="N32" t="n">
-        <v>113.770988142953</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O32" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
         <v>37.5753618102313</v>
@@ -10425,19 +10427,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L33" t="n">
         <v>483.9149924745637</v>
       </c>
       <c r="M33" t="n">
-        <v>484.4966862726622</v>
+        <v>191.4123574746777</v>
       </c>
       <c r="N33" t="n">
-        <v>464.1005135391149</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>484.5717954825564</v>
@@ -10507,7 +10509,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K34" t="n">
-        <v>60.65522297608413</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L34" t="n">
         <v>380.1908016072373</v>
@@ -10525,7 +10527,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.61956276478495</v>
+        <v>64.31013128815719</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10589,25 +10591,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
-        <v>499.7119481929572</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M35" t="n">
-        <v>362.152477837778</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N35" t="n">
-        <v>37.27962283444602</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O35" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P35" t="n">
-        <v>498.9752675705655</v>
+        <v>480.3328471358044</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L36" t="n">
-        <v>100.4610141345439</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>23.09678051232798</v>
+        <v>191.4123574746779</v>
       </c>
       <c r="N36" t="n">
-        <v>482.7429339738759</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O36" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10744,10 +10746,10 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K37" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
-        <v>380.1908016072373</v>
+        <v>62.78265149768077</v>
       </c>
       <c r="M37" t="n">
         <v>417.7126065281028</v>
@@ -10762,7 +10764,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10823,10 +10825,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>112.2559661033163</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L38" t="n">
-        <v>499.7119481929572</v>
+        <v>458.1670431142371</v>
       </c>
       <c r="M38" t="n">
         <v>37.43126289943181</v>
@@ -10835,16 +10837,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P38" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10901,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
         <v>22.39923383333334</v>
@@ -10908,16 +10910,16 @@
         <v>483.9149924745637</v>
       </c>
       <c r="M39" t="n">
-        <v>465.8542658379012</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N39" t="n">
-        <v>482.7429339738759</v>
+        <v>189.6586051758914</v>
       </c>
       <c r="O39" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q39" t="n">
         <v>22.7470382889785</v>
@@ -10981,7 +10983,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K40" t="n">
-        <v>60.65522297608413</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L40" t="n">
         <v>380.1908016072373</v>
@@ -11060,25 +11062,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L41" t="n">
-        <v>499.7119481929572</v>
+        <v>457.4595408934816</v>
       </c>
       <c r="M41" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>457.1346235160603</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P41" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11133,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
         <v>483.7991395936675</v>
       </c>
       <c r="L42" t="n">
-        <v>465.2725720398026</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>101.0427079326427</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11215,10 +11217,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L43" t="n">
         <v>380.1908016072373</v>
@@ -11230,13 +11232,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>381.5174992961649</v>
+        <v>299.5718579722076</v>
       </c>
       <c r="P43" t="n">
-        <v>315.9153581548562</v>
+        <v>22.38080065798648</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11300,22 +11302,22 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>271.6351567831744</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M44" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>403.8516212395203</v>
+        <v>457.1346235160602</v>
       </c>
       <c r="O44" t="n">
-        <v>403.9629577610984</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
         <v>153.7764225027789</v>
@@ -11370,31 +11372,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M45" t="n">
-        <v>389.6687789174023</v>
+        <v>101.0427079326425</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>389.7438881272965</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>382.8141518528587</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -11458,16 +11460,16 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>389.1474382965601</v>
+        <v>42.2324077072759</v>
       </c>
       <c r="N46" t="n">
-        <v>387.3208993806747</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
-        <v>32.12686963295535</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
         <v>315.9153581548562</v>
@@ -22550,22 +22552,22 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>166.2344173054113</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,13 +22606,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>111.8412933884136</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -22705,16 +22707,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>39.69756947403297</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
         <v>164.5944000087102</v>
@@ -22753,16 +22755,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>101.420781274243</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22844,13 +22846,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>350.486277387194</v>
+        <v>356.8051788864659</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -22939,16 +22941,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>136.6390118465751</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
@@ -22957,10 +22959,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22987,7 +22989,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -23002,13 +23004,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>83.84206983560642</v>
       </c>
     </row>
     <row r="8">
@@ -23030,13 +23032,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -23075,19 +23077,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>13.09213209362122</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>327.5708694821617</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23191,13 +23193,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23236,10 +23238,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>79.50510837954207</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>206.334344054255</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -23255,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>293.9764452515382</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -23306,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>356.8051788864659</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -23413,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -23434,7 +23436,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>56.67644152230677</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>143.0897082479123</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>58.6506274399664</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>166.2344173054109</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
         <v>34.5479025439635</v>
@@ -23549,10 +23551,10 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
@@ -23561,7 +23563,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23665,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>41.73994404554475</v>
+        <v>63.97603824732799</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23729,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>166.234417305411</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
@@ -23783,7 +23785,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>255.7713603095518</v>
@@ -23795,10 +23797,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>73.52507780080555</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23887,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>146.169867970125</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>112.8421857026147</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -23935,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23981,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>148.4586200432199</v>
       </c>
       <c r="I20" t="n">
         <v>34.5479025439635</v>
@@ -24020,22 +24022,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>312.4136446340818</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24124,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>99.60164079042647</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
         <v>98.77088257712678</v>
@@ -24175,19 +24177,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>16.93792262753402</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24203,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>320.2703576936859</v>
+        <v>246.910913738383</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24266,7 +24268,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>407.6027988439302</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,10 +24423,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>117.2205539080143</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>107.5634614771283</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>386.8665051815427</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
         <v>421.717170453621</v>
@@ -24461,7 +24463,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
-        <v>61.39750085925454</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>18.10797441283958</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24655,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>115.121631113674</v>
       </c>
     </row>
     <row r="29">
@@ -24686,13 +24688,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>135.3673251155519</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24731,22 +24733,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
-        <v>148.6366891814391</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24838,19 +24840,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>101.4207812742432</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
@@ -24886,19 +24888,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>102.4409271834044</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24917,7 +24919,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
@@ -24932,10 +24934,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24977,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>300.7971820066964</v>
       </c>
       <c r="Y32" t="n">
-        <v>342.4391955825095</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -25135,7 +25137,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>107.5634614771281</v>
+        <v>107.5634614771283</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25151,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>304.9492260179337</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>166.234417305411</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
         <v>34.5479025439635</v>
@@ -25202,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>218.7163152458132</v>
@@ -25211,13 +25213,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>107.5634614771284</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>107.5634614771281</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25403,13 +25405,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>400.2956717864458</v>
+        <v>361.2927046778199</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>255.0622712569942</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25564,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>107.5634614771281</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25600,22 +25602,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>179.7915795573369</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25625,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>280.88515032387</v>
+        <v>45.07957401096843</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
@@ -25679,7 +25681,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
@@ -25691,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>54.32345065995469</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,22 +25839,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>256.4360489393687</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25865,25 +25867,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>33.72367338137155</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>175.3003270572343</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25922,13 +25924,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>25.85543779758228</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>401.5063022533485</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -25992,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>80.51100496435802</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26001,10 +26003,10 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>202.9234074721264</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>84.57373042780797</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26029,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>6.231471831888882</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,16 +26082,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>254.6358214643529</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>458963.6807164354</v>
+        <v>458963.6807164352</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>517163.3450823475</v>
+        <v>458963.6807164352</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>517163.3450823473</v>
+        <v>458963.6807164352</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>458963.6807164353</v>
+        <v>458963.6807164351</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>458963.6807164352</v>
+        <v>458963.6807164353</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>458963.6807164352</v>
+        <v>458963.6807164353</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>458963.6807164354</v>
+        <v>458963.6807164353</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>376944.8486949763</v>
+        <v>458963.6807164353</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>90209.62182436744</v>
+      </c>
+      <c r="C2" t="n">
         <v>90209.62182436747</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>90209.62182436745</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
+        <v>90209.62182436744</v>
+      </c>
+      <c r="F2" t="n">
+        <v>90209.62182436742</v>
+      </c>
+      <c r="G2" t="n">
+        <v>90209.62182436744</v>
+      </c>
+      <c r="H2" t="n">
         <v>90209.62182436748</v>
       </c>
-      <c r="E2" t="n">
-        <v>90209.62182436745</v>
-      </c>
-      <c r="F2" t="n">
-        <v>90209.62182436745</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>90209.62182436747</v>
-      </c>
-      <c r="H2" t="n">
-        <v>101647.3149045897</v>
-      </c>
-      <c r="I2" t="n">
-        <v>101647.3149045897</v>
       </c>
       <c r="J2" t="n">
         <v>90209.62182436748</v>
       </c>
       <c r="K2" t="n">
+        <v>90209.62182436745</v>
+      </c>
+      <c r="L2" t="n">
+        <v>90209.62182436745</v>
+      </c>
+      <c r="M2" t="n">
         <v>90209.62182436748</v>
       </c>
-      <c r="L2" t="n">
-        <v>90209.62182436748</v>
-      </c>
-      <c r="M2" t="n">
-        <v>90209.6218243675</v>
-      </c>
       <c r="N2" t="n">
-        <v>90209.6218243675</v>
+        <v>90209.62182436747</v>
       </c>
       <c r="O2" t="n">
-        <v>90209.62182436748</v>
+        <v>90209.62182436742</v>
       </c>
       <c r="P2" t="n">
-        <v>74090.86516691143</v>
+        <v>90209.62182436745</v>
       </c>
     </row>
     <row r="3">
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>25585.42285561533</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>95911.36395069725</v>
+        <v>120722.5169427569</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23350.61219269669</v>
+        <v>23350.61219269668</v>
       </c>
       <c r="C4" t="n">
         <v>23350.61219269669</v>
       </c>
       <c r="D4" t="n">
-        <v>23350.61219269669</v>
+        <v>23350.61219269668</v>
       </c>
       <c r="E4" t="n">
-        <v>23350.61219269669</v>
+        <v>23350.61219269668</v>
       </c>
       <c r="F4" t="n">
-        <v>23350.61219269669</v>
+        <v>23350.61219269668</v>
       </c>
       <c r="G4" t="n">
         <v>23350.61219269669</v>
       </c>
       <c r="H4" t="n">
-        <v>26326.44296043127</v>
+        <v>23350.61219269669</v>
       </c>
       <c r="I4" t="n">
-        <v>26326.44296043127</v>
+        <v>23350.61219269669</v>
       </c>
       <c r="J4" t="n">
         <v>23350.61219269669</v>
@@ -26448,16 +26450,16 @@
         <v>23350.61219269669</v>
       </c>
       <c r="M4" t="n">
-        <v>23350.61219269669</v>
+        <v>23350.61219269668</v>
       </c>
       <c r="N4" t="n">
         <v>23350.61219269669</v>
       </c>
       <c r="O4" t="n">
+        <v>23350.61219269668</v>
+      </c>
+      <c r="P4" t="n">
         <v>23350.61219269669</v>
-      </c>
-      <c r="P4" t="n">
-        <v>19156.87385206687</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>61680.71427022832</v>
       </c>
       <c r="E5" t="n">
+        <v>28053.11427022831</v>
+      </c>
+      <c r="F5" t="n">
+        <v>28053.11427022831</v>
+      </c>
+      <c r="G5" t="n">
+        <v>28053.11427022831</v>
+      </c>
+      <c r="H5" t="n">
+        <v>28053.11427022831</v>
+      </c>
+      <c r="I5" t="n">
+        <v>28053.11427022831</v>
+      </c>
+      <c r="J5" t="n">
+        <v>28053.11427022831</v>
+      </c>
+      <c r="K5" t="n">
+        <v>28053.11427022831</v>
+      </c>
+      <c r="L5" t="n">
+        <v>28053.11427022831</v>
+      </c>
+      <c r="M5" t="n">
+        <v>28053.11427022831</v>
+      </c>
+      <c r="N5" t="n">
+        <v>28053.11427022831</v>
+      </c>
+      <c r="O5" t="n">
+        <v>28053.11427022831</v>
+      </c>
+      <c r="P5" t="n">
         <v>28053.11427022832</v>
-      </c>
-      <c r="F5" t="n">
-        <v>28053.11427022832</v>
-      </c>
-      <c r="G5" t="n">
-        <v>28053.11427022832</v>
-      </c>
-      <c r="H5" t="n">
-        <v>33818.65103742812</v>
-      </c>
-      <c r="I5" t="n">
-        <v>33818.65103742812</v>
-      </c>
-      <c r="J5" t="n">
-        <v>28053.11427022832</v>
-      </c>
-      <c r="K5" t="n">
-        <v>28053.11427022832</v>
-      </c>
-      <c r="L5" t="n">
-        <v>28053.11427022832</v>
-      </c>
-      <c r="M5" t="n">
-        <v>28053.11427022832</v>
-      </c>
-      <c r="N5" t="n">
-        <v>28053.11427022832</v>
-      </c>
-      <c r="O5" t="n">
-        <v>28053.11427022832</v>
-      </c>
-      <c r="P5" t="n">
-        <v>22287.57750302851</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-149447.425256678</v>
       </c>
       <c r="C6" t="n">
+        <v>5178.295361442462</v>
+      </c>
+      <c r="D6" t="n">
         <v>5178.295361442448</v>
       </c>
-      <c r="D6" t="n">
-        <v>5178.295361442477</v>
-      </c>
       <c r="E6" t="n">
+        <v>38805.89536144244</v>
+      </c>
+      <c r="F6" t="n">
+        <v>38805.89536144242</v>
+      </c>
+      <c r="G6" t="n">
+        <v>38805.89536144244</v>
+      </c>
+      <c r="H6" t="n">
+        <v>38805.89536144248</v>
+      </c>
+      <c r="I6" t="n">
+        <v>38805.89536144247</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-81916.62158131438</v>
+      </c>
+      <c r="K6" t="n">
         <v>38805.89536144245</v>
       </c>
-      <c r="F6" t="n">
+      <c r="L6" t="n">
         <v>38805.89536144245</v>
       </c>
-      <c r="G6" t="n">
-        <v>38805.89536144246</v>
-      </c>
-      <c r="H6" t="n">
-        <v>15916.79805111494</v>
-      </c>
-      <c r="I6" t="n">
-        <v>41502.22090673029</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-57105.46858925478</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>38805.89536144248</v>
       </c>
-      <c r="L6" t="n">
-        <v>38805.89536144248</v>
-      </c>
-      <c r="M6" t="n">
-        <v>38805.89536144249</v>
-      </c>
       <c r="N6" t="n">
-        <v>38805.89536144249</v>
+        <v>38805.89536144247</v>
       </c>
       <c r="O6" t="n">
-        <v>38805.89536144248</v>
+        <v>38805.89536144242</v>
       </c>
       <c r="P6" t="n">
-        <v>32646.41381181605</v>
+        <v>38805.89536144245</v>
       </c>
     </row>
   </sheetData>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>461.3999057603341</v>
+      </c>
+      <c r="C4" t="n">
+        <v>461.3999057603341</v>
+      </c>
+      <c r="D4" t="n">
+        <v>461.3999057603341</v>
+      </c>
+      <c r="E4" t="n">
+        <v>461.3999057603341</v>
+      </c>
+      <c r="F4" t="n">
+        <v>461.3999057603341</v>
+      </c>
+      <c r="G4" t="n">
+        <v>461.3999057603341</v>
+      </c>
+      <c r="H4" t="n">
+        <v>461.3999057603341</v>
+      </c>
+      <c r="I4" t="n">
+        <v>461.3999057603341</v>
+      </c>
+      <c r="J4" t="n">
+        <v>461.3999057603341</v>
+      </c>
+      <c r="K4" t="n">
+        <v>461.3999057603341</v>
+      </c>
+      <c r="L4" t="n">
+        <v>461.3999057603341</v>
+      </c>
+      <c r="M4" t="n">
+        <v>461.3999057603341</v>
+      </c>
+      <c r="N4" t="n">
+        <v>461.3999057603341</v>
+      </c>
+      <c r="O4" t="n">
+        <v>461.3999057603341</v>
+      </c>
+      <c r="P4" t="n">
         <v>461.3999057603342</v>
-      </c>
-      <c r="C4" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="D4" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="E4" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="F4" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="G4" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="H4" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="I4" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="J4" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="K4" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="L4" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="M4" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="N4" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="O4" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="P4" t="n">
-        <v>366.5719984050743</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>366.5719984050743</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,16 +34701,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M2" t="n">
-        <v>419.8550006816142</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N2" t="n">
-        <v>461.3999057603342</v>
+        <v>76.49136530850697</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34717,10 +34719,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,28 +34780,28 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>77.94592742031439</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>160.7937153846614</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34860,10 +34862,10 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M4" t="n">
-        <v>395.137166636617</v>
+        <v>19.65696781578962</v>
       </c>
       <c r="N4" t="n">
         <v>381.3045564404402</v>
@@ -34875,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>111.0748027298631</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34945,19 +34947,19 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O5" t="n">
-        <v>419.8550006816142</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P5" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>76.49136530850697</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,19 +35017,19 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>77.94592742031439</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L6" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>461.3999057603342</v>
+        <v>77.94592742031473</v>
       </c>
       <c r="O6" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35091,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
-        <v>40.86389160198001</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
         <v>395.137166636617</v>
@@ -35109,10 +35111,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>293.5345574968697</v>
+        <v>46.33731851519604</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>443.4649875463285</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P8" t="n">
-        <v>461.3999057603342</v>
+        <v>324.0137127175907</v>
       </c>
       <c r="Q8" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,31 +35248,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L9" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M9" t="n">
-        <v>85.46778899800312</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>352.3878357835376</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>228.8157587937749</v>
@@ -35340,16 +35342,16 @@
         <v>395.137166636617</v>
       </c>
       <c r="N10" t="n">
-        <v>381.3045564404402</v>
+        <v>63.89640633088362</v>
       </c>
       <c r="O10" t="n">
         <v>359.0183117977405</v>
       </c>
       <c r="P10" t="n">
-        <v>46.33731851519627</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,25 +35412,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>76.49136530850708</v>
       </c>
       <c r="L11" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>77.19886752926243</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O11" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>160.7937153846612</v>
       </c>
       <c r="L12" t="n">
-        <v>435.2356237478843</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O12" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>269.6796503957549</v>
+        <v>211.6076016844838</v>
       </c>
       <c r="M13" t="n">
         <v>395.137166636617</v>
@@ -35644,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L14" t="n">
-        <v>324.7212149383462</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>461.3999057603342</v>
+        <v>419.1474984608586</v>
       </c>
       <c r="N14" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -35665,7 +35667,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35726,28 +35728,28 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>160.7937153846612</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>77.94592742031445</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O15" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q15" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>211.6076016844843</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M16" t="n">
         <v>395.137166636617</v>
@@ -35823,7 +35825,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q16" t="n">
-        <v>128.2829598391535</v>
+        <v>39.69056852337224</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,25 +35886,25 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.0137127175907</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>461.3999057603342</v>
+        <v>324.7212149383461</v>
       </c>
       <c r="N17" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35966,19 +35968,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N18" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O18" t="n">
-        <v>435.2356237478845</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>442.7574853255731</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>228.8157587937749</v>
@@ -36048,7 +36050,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M19" t="n">
-        <v>19.65696781579008</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N19" t="n">
         <v>381.3045564404402</v>
@@ -36057,10 +36059,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P19" t="n">
-        <v>293.5345574968697</v>
+        <v>104.409367226467</v>
       </c>
       <c r="Q19" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,25 +36120,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M20" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N20" t="n">
-        <v>556.2278131155941</v>
+        <v>419.1474984608586</v>
       </c>
       <c r="O20" t="n">
-        <v>415.010189472638</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36194,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>352.3878357835379</v>
       </c>
       <c r="M21" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N21" t="n">
-        <v>440.0596680121639</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O21" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>228.8157587937749</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L22" t="n">
-        <v>358.2720417115368</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M22" t="n">
         <v>395.137166636617</v>
@@ -36297,7 +36299,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q22" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,22 +36360,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O23" t="n">
-        <v>556.2278131155941</v>
+        <v>324.0137127175907</v>
       </c>
       <c r="P23" t="n">
-        <v>415.010189472638</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36437,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>158.2737632597932</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="M24" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N24" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36455,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>228.8157587937749</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L25" t="n">
         <v>358.2720417115361</v>
@@ -36534,7 +36536,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q25" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,25 +36594,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>324.7212149383462</v>
+        <v>419.8550006816141</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q26" t="n">
         <v>460.6924035395789</v>
@@ -36674,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>352.3878357835375</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O27" t="n">
-        <v>461.3999057603342</v>
+        <v>352.3878357835376</v>
       </c>
       <c r="P27" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>82.84778796434657</v>
@@ -36753,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>228.8157587937749</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L28" t="n">
         <v>358.2720417115361</v>
@@ -36768,7 +36770,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P28" t="n">
-        <v>104.4093672264672</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36832,16 +36834,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>76.49136530850697</v>
+        <v>419.1474984608586</v>
       </c>
       <c r="M29" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N29" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -36853,7 +36855,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,19 +36913,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>352.3878357835375</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M30" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>352.3878357835378</v>
       </c>
       <c r="O30" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37069,19 +37071,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>76.49136530850708</v>
       </c>
       <c r="L32" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M32" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N32" t="n">
-        <v>76.49136530850697</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O32" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37145,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L33" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M33" t="n">
-        <v>461.3999057603342</v>
+        <v>168.3155769623498</v>
       </c>
       <c r="N33" t="n">
-        <v>442.7574853255732</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37227,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>39.69056852337214</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>358.2720417115361</v>
@@ -37245,7 +37247,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>39.69056852337224</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,25 +37311,25 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M35" t="n">
-        <v>324.7212149383462</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>461.3999057603342</v>
+        <v>442.7574853255731</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L36" t="n">
-        <v>77.94592742031439</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>168.3155769623499</v>
       </c>
       <c r="N36" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O36" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R36" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,10 +37466,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L37" t="n">
-        <v>358.2720417115361</v>
+        <v>40.86389160197955</v>
       </c>
       <c r="M37" t="n">
         <v>395.137166636617</v>
@@ -37482,7 +37484,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,10 +37545,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
-        <v>76.49136530850691</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L38" t="n">
-        <v>461.3999057603342</v>
+        <v>419.8550006816141</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -37555,16 +37557,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M39" t="n">
-        <v>442.7574853255732</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N39" t="n">
-        <v>461.3999057603342</v>
+        <v>168.3155769623498</v>
       </c>
       <c r="O39" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37780,25 +37782,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L41" t="n">
-        <v>461.3999057603342</v>
+        <v>419.1474984608586</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>419.8550006816143</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L42" t="n">
-        <v>442.7574853255731</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>77.94592742031473</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K43" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L43" t="n">
         <v>358.2720417115361</v>
@@ -37950,13 +37952,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O43" t="n">
-        <v>359.0183117977405</v>
+        <v>277.0726704737831</v>
       </c>
       <c r="P43" t="n">
-        <v>293.5345574968697</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,22 +38022,22 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>233.3231143505515</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>366.5719984050743</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="O44" t="n">
-        <v>366.5719984050743</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
         <v>118.7437726079824</v>
@@ -38090,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M45" t="n">
-        <v>366.5719984050743</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>366.5719984050743</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>361.04331064803</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R45" t="n">
         <v>82.84778796434657</v>
@@ -38178,16 +38180,16 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M46" t="n">
-        <v>366.5719984050743</v>
+        <v>19.65696781579008</v>
       </c>
       <c r="N46" t="n">
-        <v>366.5719984050743</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O46" t="n">
-        <v>9.627682134530897</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P46" t="n">
         <v>293.5345574968697</v>
